--- a/All_defect_List.xlsx
+++ b/All_defect_List.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Defect List" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Defect List'!$A$1:$AF$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Defect List'!$A$1:$AF$275</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="418">
   <si>
     <t> unused import </t>
   </si>
@@ -1153,6 +1148,208 @@
   </si>
   <si>
     <t>[Defect][NEW FEATURES] save/load : rooms visit information error.  - at load time, current room is in room visited.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOANRQUBE_DEFECT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove this unused import 'com.fasterxml.jackson.core.JsonParseException'.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'com.fasterxml.jackson.databind.JsonMappingException'.</t>
+  </si>
+  <si>
+    <t>Reduce the total number of break and continue statements in this loop to use at most one.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 35 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 23 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>2 duplicated blocks of code must be removed.</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 18 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>Use "Integer.parseInt" for this string-to-int conversion.</t>
+  </si>
+  <si>
+    <t>duplicated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace this if-then-else statement by a single return statement.</t>
+  </si>
+  <si>
+    <t>Remove this unused "byteCount" local variable.</t>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "key".</t>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "encryptedValue".</t>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "decryptedValue".</t>
+  </si>
+  <si>
+    <t>Override "equals(Object obj)" to comply with the contract of the "compareTo(T o)" method.</t>
+  </si>
+  <si>
+    <t>Remove this unused "obscuringItem" private field.</t>
+  </si>
+  <si>
+    <t>Replace the synchronized class "StringBuffer" by an unsynchronized one such as "StringBuilder".</t>
+  </si>
+  <si>
+    <t>Rename "gameConfig" which hides the field declared at line 74.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 24 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>Remove the declaration of thrown exception 'java.lang.NullPointerException' which is a runtime exception.</t>
+  </si>
+  <si>
+    <t>Use a logger to log this exception.</t>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete the task associated to this TODO comment.</t>
+  </si>
+  <si>
+    <t>Remove this empty statement.</t>
+  </si>
+  <si>
+    <t>Make this "public static isOnlineServer" field final</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 16 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>Either re-interrupt this method or rethrow the "InterruptedException".</t>
+  </si>
+  <si>
+    <t>Make printStream a static final constant or non-public and provide accessors if needed.</t>
+  </si>
+  <si>
+    <t>Use try-with-resources or close this "FileWriter" in a "finally" clause.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 19 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>Make gameType a static final constant or non-public and provide accessors if needed.</t>
+  </si>
+  <si>
+    <t>Make pointGoalItems a static final constant or non-public and provide accessors if needed.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'edu.cmu.tartan.item.ItemLock'.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'java.util.List'.</t>
+  </si>
+  <si>
+    <t>1 duplicated blocks of code must be removed.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'java.util.LinkedList'.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'edu.cmu.tartan.room.RoomLockable'.</t>
+  </si>
+  <si>
+    <t>Remove this unused import 'java.util.ArrayList'.</t>
+  </si>
+  <si>
+    <t>The type of the "sharedInstances" object should be an interface such as "List" rather than the implementation "LinkedList".</t>
+  </si>
+  <si>
+    <t>Rename "selectionKey" which hides the field declared at line 25.</t>
+  </si>
+  <si>
+    <t>Make this member "protected".</t>
+  </si>
+  <si>
+    <t>Add a nested comment explaining why this method is empty, throw an UnsupportedOperationException or complete the implementation.</t>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract this nested try block into a separate method.</t>
+  </si>
+  <si>
+    <t>Add a private constructor to hide the implicit public one.</t>
+  </si>
+  <si>
+    <t>Rename this field "ALGO" to match the regular expression '^[a-z][a-zA-Z0-9]*$'.</t>
+  </si>
+  <si>
+    <t>Make this "public static defaultKey" field final</t>
+  </si>
+  <si>
+    <t>Iterate over the "entrySet" instead of the "keySet".</t>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A "NullPointerException" could be thrown; "digest" is nullable here.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +1726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1537,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G266" sqref="G266:G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6467,8 +6664,932 @@
         <v>263</v>
       </c>
     </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AF209">
+  <autoFilter ref="A1:AF275">
     <sortState ref="A2:AF209">
       <sortCondition ref="I1:I209"/>
     </sortState>

--- a/All_defect_List.xlsx
+++ b/All_defect_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="18885" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Defect List" sheetId="7" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Complex use of 'continue' and 'break' in 'while'</t>
   </si>
   <si>
-    <t>brain-overload</t>
-  </si>
-  <si>
     <t> compare 'string constant'</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t> switch - no default</t>
   </si>
   <si>
-    <t>common weakness</t>
-  </si>
-  <si>
     <t>Complex use of  'break' in 'while'</t>
   </si>
   <si>
@@ -75,15 +69,9 @@
     <t>Game success condition can be set, but no structure to set failure condition</t>
   </si>
   <si>
-    <t>requirement</t>
-  </si>
-  <si>
     <t>Need to delete or reconsider</t>
   </si>
   <si>
-    <t>useless annotations</t>
-  </si>
-  <si>
     <t> class field private or getter</t>
   </si>
   <si>
@@ -1350,6 +1338,22 @@
   </si>
   <si>
     <t>A "NullPointerException" could be thrown; "digest" is nullable here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,7 +1730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1736,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G266" sqref="G266:G275"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1757,63 +1761,63 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>10018</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2">
         <v>43294.708333333336</v>
@@ -1822,33 +1826,33 @@
         <v>43309.459027777775</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
         <v>10019</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2">
         <v>43294.709722222222</v>
@@ -1857,33 +1861,33 @@
         <v>43313.692361111112</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>10020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2">
         <v>43294.71597222222</v>
@@ -1892,33 +1896,33 @@
         <v>43309.455555555556</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1">
         <v>10021</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I5" s="2">
         <v>43294.722222222219</v>
@@ -1927,33 +1931,33 @@
         <v>43309.456944444442</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1">
         <v>10022</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2">
         <v>43294.723611111112</v>
@@ -1962,33 +1966,33 @@
         <v>43313.692361111112</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1">
         <v>10023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2">
         <v>43297.338194444441</v>
@@ -1997,33 +2001,33 @@
         <v>43309.459722222222</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>10024</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2">
         <v>43297.347916666666</v>
@@ -2032,33 +2036,33 @@
         <v>43309.460416666669</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1">
         <v>10025</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I9" s="2">
         <v>43297.351388888892</v>
@@ -2067,33 +2071,33 @@
         <v>43313.691666666666</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1">
         <v>10026</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2">
         <v>43297.354861111111</v>
@@ -2102,33 +2106,33 @@
         <v>43313.691666666666</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1">
         <v>10027</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2">
         <v>43297.365972222222</v>
@@ -2137,33 +2141,33 @@
         <v>43313.691666666666</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1">
         <v>10028</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2">
         <v>43297.366666666669</v>
@@ -2172,33 +2176,33 @@
         <v>43313.691666666666</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1">
         <v>10029</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2">
         <v>43297.368750000001</v>
@@ -2207,33 +2211,33 @@
         <v>43309.694444444445</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1">
         <v>10030</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2">
         <v>43297.376388888886</v>
@@ -2242,33 +2246,33 @@
         <v>43309.46597222222</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1">
         <v>10031</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2">
         <v>43297.379861111112</v>
@@ -2277,33 +2281,33 @@
         <v>43309.466666666667</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1">
         <v>10032</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I16" s="2">
         <v>43297.385416666664</v>
@@ -2312,33 +2316,33 @@
         <v>43309.664583333331</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1">
         <v>10033</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2">
         <v>43297.386111111111</v>
@@ -2347,33 +2351,33 @@
         <v>43309.466666666667</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1">
         <v>10045</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I18" s="2">
         <v>43299.888194444444</v>
@@ -2384,28 +2388,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1">
         <v>10046</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I19" s="2">
         <v>43299.898611111108</v>
@@ -2416,28 +2420,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1">
         <v>10047</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I20" s="2">
         <v>43299.915972222225</v>
@@ -2448,28 +2452,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1">
         <v>10050</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I21" s="2">
         <v>43299.951388888891</v>
@@ -2480,28 +2484,28 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>10051</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I22" s="2">
         <v>43299.957638888889</v>
@@ -2510,33 +2514,33 @@
         <v>43304.720833333333</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1">
         <v>10052</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I23" s="2">
         <v>43299.993750000001</v>
@@ -2545,33 +2549,33 @@
         <v>43304.724999999999</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1">
         <v>10053</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I24" s="2">
         <v>43300.010416666664</v>
@@ -2582,28 +2586,28 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C25" s="1">
         <v>10084</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I25" s="2">
         <v>43304.701388888891</v>
@@ -2612,33 +2616,33 @@
         <v>43313.690972222219</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C26" s="1">
         <v>10085</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2">
         <v>43304.715277777781</v>
@@ -2649,28 +2653,28 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C27" s="1">
         <v>10086</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I27" s="2">
         <v>43304.724999999999</v>
@@ -2679,33 +2683,33 @@
         <v>43304.726388888892</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C28" s="1">
         <v>10089</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I28" s="2">
         <v>43304.855555555558</v>
@@ -2714,33 +2718,33 @@
         <v>43305.89166666667</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C29" s="1">
         <v>10090</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I29" s="2">
         <v>43304.921527777777</v>
@@ -2751,28 +2755,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C30" s="1">
         <v>10092</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I30" s="2">
         <v>43305.405555555553</v>
@@ -2783,28 +2787,28 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C31" s="1">
         <v>10099</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I31" s="2">
         <v>43305.701388888891</v>
@@ -2813,33 +2817,33 @@
         <v>43313.69027777778</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C32" s="1">
         <v>10107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2">
         <v>43305.898611111108</v>
@@ -2848,33 +2852,33 @@
         <v>43313.69027777778</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C33" s="1">
         <v>10108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I33" s="2">
         <v>43305.900694444441</v>
@@ -2883,33 +2887,33 @@
         <v>43309.468055555553</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C34" s="1">
         <v>10109</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2">
         <v>43305.904166666667</v>
@@ -2918,33 +2922,33 @@
         <v>43313.689583333333</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C35" s="1">
         <v>10110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I35" s="2">
         <v>43305.908333333333</v>
@@ -2953,33 +2957,33 @@
         <v>43313.689583333333</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1">
         <v>10111</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I36" s="2">
         <v>43305.909722222219</v>
@@ -2988,33 +2992,33 @@
         <v>43313.689583333333</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C37" s="1">
         <v>10113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I37" s="2">
         <v>43306.34097222222</v>
@@ -3025,28 +3029,28 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C38" s="1">
         <v>10114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I38" s="2">
         <v>43306.356944444444</v>
@@ -3057,28 +3061,28 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C39" s="1">
         <v>10115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I39" s="2">
         <v>43306.361805555556</v>
@@ -3089,28 +3093,28 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C40" s="1">
         <v>10116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I40" s="2">
         <v>43306.364583333336</v>
@@ -3121,28 +3125,28 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1">
         <v>10119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I41" s="2">
         <v>43306.373611111114</v>
@@ -3153,28 +3157,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1">
         <v>10120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I42" s="2">
         <v>43306.455555555556</v>
@@ -3183,33 +3187,33 @@
         <v>43313.689583333333</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C43" s="1">
         <v>10121</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I43" s="2">
         <v>43306.953472222223</v>
@@ -3218,33 +3222,33 @@
         <v>43313.689583333333</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1">
         <v>10123</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I44" s="2">
         <v>43306.961111111108</v>
@@ -3253,33 +3257,33 @@
         <v>43309.468055555553</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C45" s="1">
         <v>10124</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I45" s="2">
         <v>43306.962500000001</v>
@@ -3290,28 +3294,28 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C46" s="1">
         <v>10125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I46" s="2">
         <v>43306.962500000001</v>
@@ -3322,28 +3326,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C47" s="1">
         <v>10126</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I47" s="2">
         <v>43306.963194444441</v>
@@ -3354,28 +3358,28 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C48" s="1">
         <v>10128</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I48" s="2">
         <v>43306.963194444441</v>
@@ -3386,28 +3390,28 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1">
         <v>10129</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I49" s="2">
         <v>43306.963194444441</v>
@@ -3418,28 +3422,28 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1">
         <v>10130</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I50" s="2">
         <v>43306.963194444441</v>
@@ -3450,28 +3454,28 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1">
         <v>10131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I51" s="2">
         <v>43306.963888888888</v>
@@ -3482,28 +3486,28 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C52" s="1">
         <v>10132</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I52" s="2">
         <v>43306.963888888888</v>
@@ -3514,28 +3518,28 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C53" s="1">
         <v>10133</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I53" s="2">
         <v>43306.964583333334</v>
@@ -3546,28 +3550,28 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1">
         <v>10140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I54" s="2">
         <v>43306.990277777775</v>
@@ -3576,33 +3580,33 @@
         <v>43309.46875</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C55" s="1">
         <v>10141</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I55" s="2">
         <v>43306.997916666667</v>
@@ -3611,33 +3615,33 @@
         <v>43313.688888888886</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C56" s="1">
         <v>10142</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I56" s="2">
         <v>43307.011805555558</v>
@@ -3646,33 +3650,33 @@
         <v>43309.474999999999</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C57" s="1">
         <v>10143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I57" s="2">
         <v>43307.019444444442</v>
@@ -3681,33 +3685,33 @@
         <v>43309.474999999999</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C58" s="1">
         <v>10144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I58" s="2">
         <v>43307.021527777775</v>
@@ -3716,33 +3720,33 @@
         <v>43309.474999999999</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C59" s="1">
         <v>10145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I59" s="2">
         <v>43307.34652777778</v>
@@ -3751,33 +3755,33 @@
         <v>43309.475694444445</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1">
         <v>10150</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I60" s="2">
         <v>43309.679166666669</v>
@@ -3786,33 +3790,33 @@
         <v>43309.680555555555</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C61" s="1">
         <v>10151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I61" s="2">
         <v>43309.692361111112</v>
@@ -3821,33 +3825,33 @@
         <v>43313.467361111114</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C62" s="1">
         <v>10153</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I62" s="2">
         <v>43310.835416666669</v>
@@ -3858,28 +3862,28 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C63" s="1">
         <v>10155</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I63" s="2">
         <v>43310.915277777778</v>
@@ -3888,33 +3892,33 @@
         <v>43310.92291666667</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>414</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1">
         <v>10156</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>259</v>
+        <v>415</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I64" s="2">
         <v>43311.345138888886</v>
@@ -3925,28 +3929,28 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="1">
         <v>10157</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I65" s="2">
         <v>43311.347916666666</v>
@@ -3957,28 +3961,28 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1">
         <v>10158</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I66" s="2">
         <v>43311.349305555559</v>
@@ -3989,28 +3993,28 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C67" s="1">
         <v>10159</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I67" s="2">
         <v>43311.383333333331</v>
@@ -4019,33 +4023,33 @@
         <v>43311.916666666664</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C68" s="1">
         <v>10160</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I68" s="2">
         <v>43311.384722222225</v>
@@ -4054,33 +4058,33 @@
         <v>43313.6875</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>10161</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I69" s="2">
         <v>43311.462500000001</v>
@@ -4091,28 +4095,28 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1">
         <v>10162</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I70" s="2">
         <v>43311.464583333334</v>
@@ -4123,28 +4127,28 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C71" s="1">
         <v>10164</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I71" s="2">
         <v>43311.474305555559</v>
@@ -4155,28 +4159,28 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C72" s="1">
         <v>10165</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I72" s="2">
         <v>43311.593055555553</v>
@@ -4187,28 +4191,28 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1">
         <v>10166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I73" s="2">
         <v>43311.658333333333</v>
@@ -4219,28 +4223,28 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C74" s="1">
         <v>10174</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I74" s="2">
         <v>43312.456944444442</v>
@@ -4249,33 +4253,33 @@
         <v>43313.686805555553</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1">
         <v>10175</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I75" s="2">
         <v>43312.463194444441</v>
@@ -4284,33 +4288,33 @@
         <v>43313.686111111114</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1">
         <v>10177</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I76" s="2">
         <v>43312.59097222222</v>
@@ -4319,33 +4323,33 @@
         <v>43313.686111111114</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1">
         <v>10178</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I77" s="2">
         <v>43312.707638888889</v>
@@ -4354,33 +4358,33 @@
         <v>43313.685416666667</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1">
         <v>10181</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I78" s="2">
         <v>43312.925694444442</v>
@@ -4389,33 +4393,33 @@
         <v>43313.685416666667</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1">
         <v>10182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I79" s="2">
         <v>43313.354166666664</v>
@@ -4424,33 +4428,33 @@
         <v>43313.542361111111</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C80" s="1">
         <v>10183</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I80" s="2">
         <v>43313.35833333333</v>
@@ -4459,33 +4463,33 @@
         <v>43313.544444444444</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1">
         <v>10184</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I81" s="2">
         <v>43313.36041666667</v>
@@ -4494,33 +4498,33 @@
         <v>43313.488888888889</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C82" s="1">
         <v>10185</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I82" s="2">
         <v>43313.361805555556</v>
@@ -4529,33 +4533,33 @@
         <v>43313.545138888891</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1">
         <v>10186</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I83" s="2">
         <v>43313.365277777775</v>
@@ -4564,33 +4568,33 @@
         <v>43313.365277777775</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C84" s="1">
         <v>10187</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I84" s="2">
         <v>43313.368055555555</v>
@@ -4599,33 +4603,33 @@
         <v>43313.368055555555</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1">
         <v>10188</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I85" s="2">
         <v>43313.371527777781</v>
@@ -4634,33 +4638,33 @@
         <v>43313.371527777781</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C86" s="1">
         <v>10189</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I86" s="2">
         <v>43313.373611111114</v>
@@ -4669,33 +4673,33 @@
         <v>43313.373611111114</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1">
         <v>10190</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I87" s="2">
         <v>43313.375694444447</v>
@@ -4704,33 +4708,33 @@
         <v>43313.46875</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1">
         <v>10191</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I88" s="2">
         <v>43313.37777777778</v>
@@ -4739,33 +4743,33 @@
         <v>43313.46875</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C89" s="1">
         <v>10192</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I89" s="2">
         <v>43313.379166666666</v>
@@ -4774,33 +4778,33 @@
         <v>43313.46875</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C90" s="1">
         <v>10193</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I90" s="2">
         <v>43313.42291666667</v>
@@ -4809,33 +4813,33 @@
         <v>43313.68472222222</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C91" s="1">
         <v>10194</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I91" s="2">
         <v>43313.441666666666</v>
@@ -4844,33 +4848,33 @@
         <v>43313.684027777781</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C92" s="1">
         <v>10195</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I92" s="2">
         <v>43313.449305555558</v>
@@ -4881,28 +4885,28 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C93" s="1">
         <v>10196</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I93" s="2">
         <v>43313.45208333333</v>
@@ -4911,33 +4915,33 @@
         <v>43313.628472222219</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" s="1">
         <v>10197</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I94" s="2">
         <v>43313.477777777778</v>
@@ -4946,33 +4950,33 @@
         <v>43313.68472222222</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1">
         <v>10198</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I95" s="2">
         <v>43313.48541666667</v>
@@ -4981,33 +4985,33 @@
         <v>43313.68472222222</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C96" s="1">
         <v>10199</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I96" s="2">
         <v>43313.495138888888</v>
@@ -5016,33 +5020,33 @@
         <v>43313.68472222222</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C97" s="1">
         <v>10200</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I97" s="2">
         <v>43313.8</v>
@@ -5051,33 +5055,33 @@
         <v>43313.8</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C98" s="1">
         <v>10201</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I98" s="2">
         <v>43313.820138888892</v>
@@ -5086,33 +5090,33 @@
         <v>43313.820138888892</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C99" s="1">
         <v>10202</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I99" s="2">
         <v>43313.831250000003</v>
@@ -5121,7 +5125,7 @@
         <v>43313.831250000003</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -5132,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5146,10 +5150,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -5160,10 +5164,10 @@
         <v>2</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -5174,24 +5178,24 @@
         <v>2</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -5199,41 +5203,41 @@
         <v>3</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -5241,27 +5245,27 @@
         <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>12</v>
+        <v>416</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -5269,69 +5273,69 @@
         <v>1</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>5</v>
+        <v>358</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5339,13 +5343,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5353,13 +5357,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -5367,27 +5371,27 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -5398,52 +5402,52 @@
         <v>2</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5451,13 +5455,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5465,27 +5469,27 @@
         <v>3</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>5</v>
+        <v>358</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5493,41 +5497,41 @@
         <v>1</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -5535,27 +5539,27 @@
         <v>1</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5563,69 +5567,69 @@
         <v>3</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5633,27 +5637,27 @@
         <v>3</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -5661,41 +5665,41 @@
         <v>3</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -5703,13 +5707,13 @@
         <v>1</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -5717,41 +5721,41 @@
         <v>3</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G144" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -5759,27 +5763,27 @@
         <v>3</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5787,125 +5791,125 @@
         <v>3</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5913,13 +5917,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -5927,13 +5931,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5941,13 +5945,13 @@
         <v>1</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5955,13 +5959,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5969,27 +5973,27 @@
         <v>3</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5997,69 +6001,69 @@
         <v>3</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6070,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6084,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6098,24 +6102,24 @@
         <v>0</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6126,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6137,13 +6141,13 @@
         <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -6154,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6168,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6179,13 +6183,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6196,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6210,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6224,10 +6228,10 @@
         <v>0</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6238,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6252,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6266,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6280,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -6291,83 +6295,83 @@
         <v>1</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6375,41 +6379,41 @@
         <v>3</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6417,41 +6421,41 @@
         <v>1</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G194" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6459,13 +6463,13 @@
         <v>3</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6473,13 +6477,13 @@
         <v>1</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6487,125 +6491,125 @@
         <v>1</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6613,979 +6617,979 @@
         <v>1</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="G216" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="G221" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/All_defect_List.xlsx
+++ b/All_defect_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="440">
   <si>
     <t> unused import </t>
   </si>
@@ -1045,9 +1045,6 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p25,,,,</t>
-  </si>
-  <si>
     <t xml:space="preserve">[Defect] save/load : point cal error - elevator game 6point save -&gt; continue game. 8 point -&gt; load game score 14 </t>
   </si>
   <si>
@@ -1057,39 +1054,24 @@
     <t>critical</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p20,,,,</t>
-  </si>
-  <si>
     <t>[defect] obscured game -&gt; passage room in explored goal list is not game</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p8,,,,</t>
-  </si>
-  <si>
     <t>[Defect] network game - When do network games initialize?</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p22,tc_p24,,,</t>
-  </si>
-  <si>
     <t>[Defect] network game : wrong password -&gt; spell error</t>
   </si>
   <si>
     <t>Minor</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p24,,,,</t>
-  </si>
-  <si>
     <t>[Defect] network game : some one game lost -&gt; gamer counter is not discount</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_p22,,,,</t>
-  </si>
-  <si>
     <t>[Defect][NEW FEATURES-1]if not match gameConfigId, load func should not load.</t>
   </si>
   <si>
@@ -1099,9 +1081,6 @@
     <t>[Defect] network game : safe item - error pin number -&gt; game lock up</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_opensafe,,,,</t>
-  </si>
-  <si>
     <t>[Defect] requirement item room - There are no that item in the inventory. -&gt; action error</t>
   </si>
   <si>
@@ -1111,57 +1090,30 @@
     <t>[Defect] game config. : There is an unconnected room. -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr21,,,,</t>
-  </si>
-  <si>
     <t>[Defect] game config. : requirement item room game -&gt; there is not requireditem in game -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr18,,,,</t>
-  </si>
-  <si>
     <t>[Defect] [game config] excavatable room game have not shovel in game -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr11,,,,</t>
-  </si>
-  <si>
     <t>[Defect] game config. : look room game have not key, lock item in game - no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr12,tc_cr13,,,</t>
-  </si>
-  <si>
     <t>[Defect] game cofig : obscured room releated item is not in game -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr16,,,,</t>
-  </si>
-  <si>
     <t>[Defect] _elevatorRestrictedFloor 媛?諛?_elevatorInitialFloor 媛믪씠 ?ㅼ젣 痢?媛믨낵 ?ㅻ쫫</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr7,,,,</t>
-  </si>
-  <si>
     <t>[Defect] [game config] elevator room -&gt; no button item -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr06,,,,</t>
-  </si>
-  <si>
     <t>[Defect] collector game -&gt; goal item is not in game -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cg3,,,,</t>
-  </si>
-  <si>
     <t>[Defect] point game -&gt; very large point over game all point -&gt; no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cg6,,,,</t>
-  </si>
-  <si>
     <t>[Defect] explore game -&gt; goal room is not game -&gt; no error</t>
   </si>
   <si>
@@ -1174,27 +1126,15 @@
     <t>[Defect] room releated - same direction multi room : no error</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr22,,,,</t>
-  </si>
-  <si>
     <t>[Defect] obscured room - obscuringItem : dynamite is not action</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_detonatedynamite,,,,</t>
-  </si>
-  <si>
     <t>[Defect] requireditem room - not to set the required item</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,tc_cr19,,,,</t>
-  </si>
-  <si>
     <t>[Defect] microwave don't have some specific action</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.6,SYSTEST_confirm,tc_startmicrowave,,,</t>
-  </si>
-  <si>
     <t>[Defect][NEW FEATURES-1]program don't ask whether to save when user input "quit"</t>
   </si>
   <si>
@@ -1207,136 +1147,251 @@
     <t>[Defect] can load in game selection menu in online mode</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.5,,,,,</t>
-  </si>
-  <si>
     <t>[Defect] always load invalid input</t>
   </si>
   <si>
     <t xml:space="preserve">[Defect] collect game load -&gt; play -&gt;  error about goal </t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.5,tc_p25,,,,</t>
-  </si>
-  <si>
     <t>[Defect] in A Game, 'load' the B Game -&gt; quit -&gt; Display 2 goal about A &amp; B game</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.5,tc_p26,,,,</t>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4,tc_openlock,,,,</t>
-  </si>
-  <si>
     <t>[Defect][NEW FEATURES-1]goal is not loaded normally</t>
   </si>
   <si>
     <t xml:space="preserve">[Defect] pass, "\ n" action in Additional action required item </t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.4,tc_enter,tc_pass,,,</t>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4,tc_uc04,,,,</t>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4,SYSTEST_confirm,tc_p1,,,</t>
-  </si>
-  <si>
-    <t>,SYS_TEST_V1.0.4,SYSTEST_confirm,tc_e4,,,</t>
-  </si>
-  <si>
     <t>[Defect] Explorer game -&gt; quit -&gt; explored information is error (ofthen)</t>
   </si>
   <si>
-    <t>SYS_TEST_V1.0.4,SYSTEST_confirm,tc_p12,,,</t>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4,SYSTEST_confirm,tc_p2,tc_removedocumentinsafe,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm,tc_putgoldinlock,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,tc_removedocumentinsafe,,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,tc_eatcoffee,tc_eatfood,,,</t>
-  </si>
-  <si>
     <t>Structural_Odd_Code</t>
   </si>
   <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm,tc_digshovel,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,tc_removegoldinpot,,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm,tc_openlock,tc_putkeyinlock,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ,SYS_TEST_V1.0.4,SYSTEST_confirm,tc_breakpot,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,tc_uc04,,,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pre_Test_V1,SYS_TEST_V1.0.4,tc_p4,tc_p5,,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_digshovel,tc_p9,,,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V1,SYSTEST_confirm,tc_allaction,,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_inspectaction,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_installaction,tc_putaction,tc_removeaction</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_allaction,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_uc06,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_enter,tc_pass,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,tc_uc10,,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,tc_uc09,,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_p6,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_p3,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_opensafe,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_picupkey,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_uc03,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_p1,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_uc04,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm,tc_p5,,</t>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm,tc_uc02,,</t>
+    <t>covered TC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_p25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p25    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p8    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p22 tc_p24   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p24    </t>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.6,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p22    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_opensafe    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr21    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr18    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr11    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr12 tc_cr13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr16    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr7    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr06    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cg3    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cg6    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr22    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_detonatedynamite    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr19    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_startmicrowave   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p26    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pre_Test_V1,SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V1,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_openlock    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_enter tc_pass   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc04    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_e4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p2 tc_removedocumentinsafe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_putgoldinlock   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_removedocumentinsafe    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_eatcoffee tc_eatfood   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_digshovel   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_removegoldinpot    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_openlock tc_putkeyinlock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_breakpot   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p4 tc_p5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_digshovel tc_p9    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_allaction   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_inspectaction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_installaction tc_putaction tc_removeaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_allaction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_enter tc_pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_opensafe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_picupkey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc02  </t>
   </si>
 </sst>
 </file>
@@ -1708,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K275"/>
+  <dimension ref="A1:L275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1726,10 +1781,12 @@
     <col min="8" max="8" width="31.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="44.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1763,8 +1820,11 @@
       <c r="K1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1796,10 +1856,13 @@
         <v>43313.831250000003</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1810,7 +1873,7 @@
         <v>10201</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
@@ -1831,10 +1894,13 @@
         <v>43313.820138888892</v>
       </c>
       <c r="K3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1845,7 +1911,7 @@
         <v>10200</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -1854,7 +1920,7 @@
         <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H4" t="s">
         <v>85</v>
@@ -1866,10 +1932,13 @@
         <v>43313.8</v>
       </c>
       <c r="K4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1880,7 +1949,7 @@
         <v>10199</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
         <v>114</v>
@@ -1889,22 +1958,25 @@
         <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J5" s="6">
         <v>43313.495138888888</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1915,7 +1987,7 @@
         <v>10198</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
@@ -1930,16 +2002,19 @@
         <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J6" s="6">
         <v>43313.48541666667</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1950,7 +2025,7 @@
         <v>10197</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
@@ -1959,22 +2034,25 @@
         <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
         <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J7" s="6">
         <v>43313.477777777778</v>
       </c>
       <c r="K7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1985,7 +2063,7 @@
         <v>10196</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
@@ -1994,22 +2072,25 @@
         <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J8" s="6">
         <v>43313.45208333333</v>
       </c>
       <c r="K8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>10195</v>
       </c>
       <c r="D9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
@@ -2035,16 +2116,16 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J9" s="6">
         <v>43313.449305555558</v>
       </c>
       <c r="K9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2055,7 +2136,7 @@
         <v>10194</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -2064,22 +2145,25 @@
         <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J10" s="6">
         <v>43313.441666666666</v>
       </c>
       <c r="K10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2090,7 +2174,7 @@
         <v>10193</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
         <v>70</v>
@@ -2110,11 +2194,12 @@
       <c r="J11" s="6">
         <v>43313.42291666667</v>
       </c>
-      <c r="K11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+      <c r="L11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2125,7 +2210,7 @@
         <v>10192</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
@@ -2134,7 +2219,7 @@
         <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
@@ -2146,10 +2231,13 @@
         <v>43313.379166666666</v>
       </c>
       <c r="K12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2160,7 +2248,7 @@
         <v>10191</v>
       </c>
       <c r="D13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
@@ -2169,22 +2257,25 @@
         <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J13" s="6">
         <v>43313.37777777778</v>
       </c>
       <c r="K13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2195,7 +2286,7 @@
         <v>10190</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -2204,22 +2295,25 @@
         <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J14" s="6">
         <v>43313.375694444447</v>
       </c>
       <c r="K14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2230,7 +2324,7 @@
         <v>10189</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
@@ -2239,22 +2333,25 @@
         <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J15" s="6">
         <v>43313.373611111114</v>
       </c>
       <c r="K15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2265,7 +2362,7 @@
         <v>10188</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
         <v>91</v>
@@ -2274,22 +2371,25 @@
         <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J16" s="6">
         <v>43313.371527777781</v>
       </c>
       <c r="K16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -2300,7 +2400,7 @@
         <v>10187</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
         <v>91</v>
@@ -2309,7 +2409,7 @@
         <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
@@ -2321,10 +2421,13 @@
         <v>43313.368055555555</v>
       </c>
       <c r="K17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2335,7 +2438,7 @@
         <v>10186</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -2344,7 +2447,7 @@
         <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -2356,10 +2459,13 @@
         <v>43313.365277777775</v>
       </c>
       <c r="K18" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -2370,7 +2476,7 @@
         <v>10185</v>
       </c>
       <c r="D19" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>
@@ -2379,22 +2485,25 @@
         <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J19" s="6">
         <v>43313.361805555556</v>
       </c>
       <c r="K19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2405,7 +2514,7 @@
         <v>10184</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
         <v>91</v>
@@ -2414,7 +2523,7 @@
         <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -2426,10 +2535,13 @@
         <v>43313.36041666667</v>
       </c>
       <c r="K20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2440,7 +2552,7 @@
         <v>10183</v>
       </c>
       <c r="D21" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
         <v>91</v>
@@ -2449,22 +2561,22 @@
         <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H21" t="s">
         <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J21" s="6">
         <v>43313.35833333333</v>
       </c>
       <c r="K21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -2475,7 +2587,7 @@
         <v>10182</v>
       </c>
       <c r="D22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -2484,22 +2596,22 @@
         <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J22" s="6">
         <v>43313.354166666664</v>
       </c>
       <c r="K22" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -2510,7 +2622,7 @@
         <v>10181</v>
       </c>
       <c r="D23" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -2525,16 +2637,19 @@
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J23" s="6">
         <v>43312.925694444442</v>
       </c>
       <c r="K23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2545,7 +2660,7 @@
         <v>10178</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
         <v>91</v>
@@ -2560,7 +2675,7 @@
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J24" s="6">
         <v>43312.707638888889</v>
@@ -2568,8 +2683,11 @@
       <c r="K24" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -2580,7 +2698,7 @@
         <v>10177</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
         <v>91</v>
@@ -2601,10 +2719,13 @@
         <v>43312.59097222222</v>
       </c>
       <c r="K25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -2615,7 +2736,7 @@
         <v>10175</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
         <v>91</v>
@@ -2630,16 +2751,19 @@
         <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J26" s="6">
         <v>43312.463194444441</v>
       </c>
       <c r="K26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="L26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2650,7 +2774,7 @@
         <v>10174</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
         <v>114</v>
@@ -2659,13 +2783,13 @@
         <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J27" s="6">
         <v>43312.456944444442</v>
@@ -2673,8 +2797,11 @@
       <c r="K27" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2685,7 +2812,7 @@
         <v>10166</v>
       </c>
       <c r="D28" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
@@ -2694,22 +2821,22 @@
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H28" t="s">
         <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J28" s="6">
         <v>43311.658333333333</v>
       </c>
       <c r="K28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2720,7 +2847,7 @@
         <v>10165</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
@@ -2729,22 +2856,22 @@
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J29" s="6">
         <v>43311.593055555553</v>
       </c>
       <c r="K29" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2882,7 @@
         <v>10164</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2770,16 +2897,16 @@
         <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J30" s="6">
         <v>43311.474305555559</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2790,7 +2917,7 @@
         <v>10162</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
         <v>70</v>
@@ -2799,22 +2926,22 @@
         <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J31" s="6">
         <v>43311.464583333334</v>
       </c>
       <c r="K31" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2825,7 +2952,7 @@
         <v>10161</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
         <v>70</v>
@@ -2834,22 +2961,22 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H32" t="s">
         <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J32" s="6">
         <v>43311.462500000001</v>
       </c>
       <c r="K32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2860,7 +2987,7 @@
         <v>10160</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
         <v>88</v>
@@ -2875,16 +3002,19 @@
         <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J33" s="6">
         <v>43311.384722222225</v>
       </c>
       <c r="K33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="L33" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2895,7 +3025,7 @@
         <v>10159</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
         <v>88</v>
@@ -2904,22 +3034,25 @@
         <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H34" t="s">
         <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J34" s="6">
         <v>43311.383333333331</v>
       </c>
       <c r="K34" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="L34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2945,16 +3078,16 @@
         <v>169</v>
       </c>
       <c r="I35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J35" s="6">
         <v>43311.349305555559</v>
       </c>
       <c r="K35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2980,16 +3113,16 @@
         <v>169</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J36" s="6">
         <v>43311.347916666666</v>
       </c>
       <c r="K36" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3009,22 +3142,22 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H37" t="s">
         <v>169</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J37" s="6">
         <v>43311.345138888886</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3044,22 +3177,25 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H38" t="s">
         <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J38" s="6">
         <v>43310.915277777778</v>
       </c>
       <c r="K38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="L38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3070,7 +3206,7 @@
         <v>10153</v>
       </c>
       <c r="D39" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
         <v>88</v>
@@ -3085,16 +3221,16 @@
         <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J39" s="6">
         <v>43310.835416666669</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -3105,7 +3241,7 @@
         <v>10151</v>
       </c>
       <c r="D40" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
@@ -3114,7 +3250,7 @@
         <v>114</v>
       </c>
       <c r="G40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H40" t="s">
         <v>85</v>
@@ -3126,10 +3262,13 @@
         <v>43309.692361111112</v>
       </c>
       <c r="K40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="L40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -3149,22 +3288,25 @@
         <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J41" s="6">
         <v>43309.679166666669</v>
       </c>
       <c r="K41" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="L41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -3184,22 +3326,25 @@
         <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J42" s="6">
         <v>43307.34652777778</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -3219,22 +3364,25 @@
         <v>114</v>
       </c>
       <c r="G43" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J43" s="6">
         <v>43307.021527777775</v>
       </c>
       <c r="K43" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="L43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3254,22 +3402,25 @@
         <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H44" t="s">
         <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J44" s="6">
         <v>43307.019444444442</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3289,22 +3440,25 @@
         <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H45" t="s">
         <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J45" s="6">
         <v>43307.011805555558</v>
       </c>
       <c r="K45" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="L45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3315,7 +3469,7 @@
         <v>10141</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
         <v>91</v>
@@ -3330,16 +3484,19 @@
         <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J46" s="6">
         <v>43306.997916666667</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -3359,22 +3516,25 @@
         <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H47" t="s">
         <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J47" s="6">
         <v>43306.990277777775</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3400,16 +3560,16 @@
         <v>194</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J48" s="6">
         <v>43306.964583333334</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -3435,16 +3595,16 @@
         <v>194</v>
       </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J49" s="6">
         <v>43306.963888888888</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -3470,16 +3630,16 @@
         <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J50" s="6">
         <v>43306.963888888888</v>
       </c>
       <c r="K50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3505,16 +3665,16 @@
         <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J51" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3540,16 +3700,16 @@
         <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J52" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3575,16 +3735,16 @@
         <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J53" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K53" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -3610,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J54" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K54" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3645,16 +3805,16 @@
         <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J55" s="6">
         <v>43306.962500000001</v>
       </c>
       <c r="K55" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -3680,16 +3840,16 @@
         <v>194</v>
       </c>
       <c r="I56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J56" s="6">
         <v>43306.962500000001</v>
       </c>
       <c r="K56" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -3709,13 +3869,13 @@
         <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H57" t="s">
         <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J57" s="6">
         <v>43306.961111111108</v>
@@ -3723,8 +3883,11 @@
       <c r="K57" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3758,8 +3921,11 @@
       <c r="K58" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -3791,10 +3957,13 @@
         <v>43306.455555555556</v>
       </c>
       <c r="K59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="L59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3814,22 +3983,22 @@
         <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H60" t="s">
         <v>194</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J60" s="6">
         <v>43306.373611111114</v>
       </c>
       <c r="K60" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -3849,22 +4018,22 @@
         <v>193</v>
       </c>
       <c r="G61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H61" t="s">
         <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J61" s="6">
         <v>43306.364583333336</v>
       </c>
       <c r="K61" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -3884,22 +4053,22 @@
         <v>193</v>
       </c>
       <c r="G62" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H62" t="s">
         <v>194</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J62" s="6">
         <v>43306.361805555556</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3925,16 +4094,16 @@
         <v>194</v>
       </c>
       <c r="I63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J63" s="6">
         <v>43306.356944444444</v>
       </c>
       <c r="K63" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3960,16 +4129,16 @@
         <v>194</v>
       </c>
       <c r="I64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J64" s="6">
         <v>43306.34097222222</v>
       </c>
       <c r="K64" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3995,16 +4164,19 @@
         <v>85</v>
       </c>
       <c r="I65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J65" s="6">
         <v>43305.909722222219</v>
       </c>
       <c r="K65" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="L65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4030,16 +4202,19 @@
         <v>85</v>
       </c>
       <c r="I66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J66" s="6">
         <v>43305.908333333333</v>
       </c>
       <c r="K66" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="L66" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -4071,10 +4246,13 @@
         <v>43305.904166666667</v>
       </c>
       <c r="K67" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="L67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4094,22 +4272,25 @@
         <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H68" t="s">
         <v>85</v>
       </c>
       <c r="I68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J68" s="6">
         <v>43305.900694444441</v>
       </c>
       <c r="K68" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="L68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4141,10 +4322,13 @@
         <v>43305.898611111108</v>
       </c>
       <c r="K69" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -4164,22 +4348,25 @@
         <v>114</v>
       </c>
       <c r="G70" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J70" s="6">
         <v>43305.701388888891</v>
       </c>
       <c r="K70" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="L70" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4199,22 +4386,22 @@
         <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
         <v>125</v>
       </c>
       <c r="I71" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J71" s="6">
         <v>43305.405555555553</v>
       </c>
       <c r="K71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -4234,7 +4421,7 @@
         <v>193</v>
       </c>
       <c r="G72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
         <v>194</v>
@@ -4246,10 +4433,10 @@
         <v>43304.921527777777</v>
       </c>
       <c r="K72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4281,10 +4468,13 @@
         <v>43304.855555555558</v>
       </c>
       <c r="K73" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="L73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -4310,16 +4500,17 @@
         <v>85</v>
       </c>
       <c r="I74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J74" s="6">
         <v>43304.724999999999</v>
       </c>
-      <c r="K74" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K74" s="1"/>
+      <c r="L74" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4345,16 +4536,16 @@
         <v>125</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J75" s="6">
         <v>43304.715277777781</v>
       </c>
       <c r="K75" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -4374,22 +4565,25 @@
         <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H76" t="s">
         <v>85</v>
       </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J76" s="6">
         <v>43304.701388888891</v>
       </c>
       <c r="K76" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="L76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -4415,16 +4609,16 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J77" s="6">
         <v>43300.010416666664</v>
       </c>
       <c r="K77" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -4450,16 +4644,17 @@
         <v>85</v>
       </c>
       <c r="I78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J78" s="6">
         <v>43299.993750000001</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="1"/>
+      <c r="L78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -4485,16 +4680,17 @@
         <v>85</v>
       </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J79" s="6">
         <v>43299.957638888889</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="1"/>
+      <c r="L79" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4514,22 +4710,22 @@
         <v>70</v>
       </c>
       <c r="G80" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H80" t="s">
         <v>125</v>
       </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J80" s="6">
         <v>43299.951388888891</v>
       </c>
       <c r="K80" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4549,22 +4745,22 @@
         <v>70</v>
       </c>
       <c r="G81" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J81" s="6">
         <v>43299.915972222225</v>
       </c>
       <c r="K81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -4590,16 +4786,16 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J82" s="6">
         <v>43299.898611111108</v>
       </c>
       <c r="K82" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -4619,22 +4815,22 @@
         <v>193</v>
       </c>
       <c r="G83" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H83" t="s">
         <v>194</v>
       </c>
       <c r="I83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J83" s="6">
         <v>43299.888194444444</v>
       </c>
       <c r="K83" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -4654,22 +4850,25 @@
         <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H84" t="s">
         <v>85</v>
       </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J84" s="6">
         <v>43297.386111111111</v>
       </c>
       <c r="K84" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L84" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -4689,22 +4888,25 @@
         <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H85" t="s">
         <v>85</v>
       </c>
       <c r="I85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J85" s="6">
         <v>43297.385416666664</v>
       </c>
       <c r="K85" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L85" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>79</v>
       </c>
@@ -4724,22 +4926,25 @@
         <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H86" t="s">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J86" s="6">
         <v>43297.379861111112</v>
       </c>
       <c r="K86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4759,22 +4964,25 @@
         <v>114</v>
       </c>
       <c r="G87" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H87" t="s">
         <v>85</v>
       </c>
       <c r="I87" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J87" s="6">
         <v>43297.376388888886</v>
       </c>
       <c r="K87" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L87" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -4794,22 +5002,25 @@
         <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H88" t="s">
         <v>85</v>
       </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J88" s="6">
         <v>43297.368750000001</v>
       </c>
       <c r="K88" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L88" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
@@ -4829,22 +5040,25 @@
         <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H89" t="s">
         <v>85</v>
       </c>
       <c r="I89" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J89" s="6">
         <v>43297.366666666669</v>
       </c>
       <c r="K89" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="L89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>79</v>
       </c>
@@ -4864,22 +5078,25 @@
         <v>114</v>
       </c>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H90" t="s">
         <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J90" s="6">
         <v>43297.365972222222</v>
       </c>
       <c r="K90" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="L90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -4899,22 +5116,25 @@
         <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H91" t="s">
         <v>85</v>
       </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J91" s="6">
         <v>43297.354861111111</v>
       </c>
       <c r="K91" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L91" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -4934,22 +5154,25 @@
         <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H92" t="s">
         <v>85</v>
       </c>
       <c r="I92" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J92" s="6">
         <v>43297.351388888892</v>
       </c>
       <c r="K92" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L92" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -4969,22 +5192,25 @@
         <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H93" t="s">
         <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J93" s="6">
         <v>43297.347916666666</v>
       </c>
       <c r="K93" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L93" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -5004,22 +5230,25 @@
         <v>114</v>
       </c>
       <c r="G94" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H94" t="s">
         <v>85</v>
       </c>
       <c r="I94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J94" s="6">
         <v>43297.338194444441</v>
       </c>
       <c r="K94" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L94" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -5039,22 +5268,25 @@
         <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H95" t="s">
         <v>85</v>
       </c>
       <c r="I95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J95" s="6">
         <v>43294.723611111112</v>
       </c>
       <c r="K95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L95" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -5080,16 +5312,19 @@
         <v>85</v>
       </c>
       <c r="I96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J96" s="6">
         <v>43294.722222222219</v>
       </c>
       <c r="K96" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L96" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>79</v>
       </c>
@@ -5109,22 +5344,25 @@
         <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H97" t="s">
         <v>85</v>
       </c>
       <c r="I97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J97" s="6">
         <v>43294.71597222222</v>
       </c>
       <c r="K97" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L97" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
@@ -5144,22 +5382,25 @@
         <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H98" t="s">
         <v>85</v>
       </c>
       <c r="I98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J98" s="6">
         <v>43294.709722222222</v>
       </c>
       <c r="K98" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="L98" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -5179,22 +5420,25 @@
         <v>114</v>
       </c>
       <c r="G99" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H99" t="s">
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J99" s="6">
         <v>43294.708333333336</v>
       </c>
       <c r="K99" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="L99" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
@@ -5208,7 +5452,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -5222,7 +5466,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>3</v>
       </c>
@@ -5236,7 +5480,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
@@ -5250,7 +5494,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>252</v>
       </c>
@@ -5264,7 +5508,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
@@ -5278,7 +5522,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -5292,7 +5536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>252</v>
       </c>
@@ -5306,7 +5550,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +5564,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>322</v>
       </c>
@@ -5334,7 +5578,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -5348,7 +5592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>135</v>
       </c>
@@ -5362,7 +5606,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>135</v>
       </c>

--- a/All_defect_List.xlsx
+++ b/All_defect_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="439">
   <si>
     <t> unused import </t>
   </si>
@@ -327,9 +327,6 @@
     <t>SDET-19</t>
   </si>
   <si>
-    <t>[Defect] At root menu, ?쁰uit??event control</t>
-  </si>
-  <si>
     <t>SDET-29</t>
   </si>
   <si>
@@ -434,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콤플렉스 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bad practice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,30 +532,18 @@
     <t>SDET-159</t>
   </si>
   <si>
-    <t>[Defect] Either re-interrupt this method or rethrow the "InterruptedException".</t>
-  </si>
-  <si>
     <t>SOANRQUBE_DEFECT</t>
   </si>
   <si>
     <t>SDET-158</t>
   </si>
   <si>
-    <t>[Defect] Use try-with-resources or close this "FileWriter" in a "finally" clause.</t>
-  </si>
-  <si>
     <t>SDET-157</t>
   </si>
   <si>
-    <t>[Defect] A "NullPointerException" could be thrown; "digest" is nullable here.</t>
-  </si>
-  <si>
     <t>SDET-156</t>
   </si>
   <si>
-    <t>[Defect] null pointer exception is occurred when trying to unlock without key</t>
-  </si>
-  <si>
     <t>SDET-154</t>
   </si>
   <si>
@@ -1039,359 +1020,413 @@
     <t>Labels</t>
   </si>
   <si>
-    <t>[Defect] save/load : rooms visit information error.  - at load time, current room is in room visited.</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
-    <t xml:space="preserve">[Defect] save/load : point cal error - elevator game 6point save -&gt; continue game. 8 point -&gt; load game score 14 </t>
-  </si>
-  <si>
-    <t>[Defect] network game - "javax.crypto.IllegalBlockSizeException" error</t>
-  </si>
-  <si>
     <t>critical</t>
   </si>
   <si>
-    <t>[defect] obscured game -&gt; passage room in explored goal list is not game</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>[Defect] network game - When do network games initialize?</t>
-  </si>
-  <si>
-    <t>[Defect] network game : wrong password -&gt; spell error</t>
-  </si>
-  <si>
     <t>Minor</t>
   </si>
   <si>
-    <t>[Defect] network game : some one game lost -&gt; gamer counter is not discount</t>
-  </si>
-  <si>
-    <t>[Defect][NEW FEATURES-1]if not match gameConfigId, load func should not load.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>[Defect] network game : safe item - error pin number -&gt; game lock up</t>
-  </si>
-  <si>
-    <t>[Defect] requirement item room - There are no that item in the inventory. -&gt; action error</t>
-  </si>
-  <si>
     <t xml:space="preserve">tc_p22 </t>
   </si>
   <si>
-    <t>[Defect] game config. : There is an unconnected room. -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] game config. : requirement item room game -&gt; there is not requireditem in game -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] [game config] excavatable room game have not shovel in game -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] game config. : look room game have not key, lock item in game - no error</t>
-  </si>
-  <si>
-    <t>[Defect] game cofig : obscured room releated item is not in game -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] _elevatorRestrictedFloor 媛?諛?_elevatorInitialFloor 媛믪씠 ?ㅼ젣 痢?媛믨낵 ?ㅻ쫫</t>
-  </si>
-  <si>
-    <t>[Defect] [game config] elevator room -&gt; no button item -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] collector game -&gt; goal item is not in game -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] point game -&gt; very large point over game all point -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] explore game -&gt; goal room is not game -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] Darkroom Game config -&gt; delete light item -&gt; no error</t>
-  </si>
-  <si>
-    <t>[Defect] log in - pw error -&gt; unlimited retry</t>
-  </si>
-  <si>
-    <t>[Defect] room releated - same direction multi room : no error</t>
-  </si>
-  <si>
-    <t>[Defect] obscured room - obscuringItem : dynamite is not action</t>
-  </si>
-  <si>
-    <t>[Defect] requireditem room - not to set the required item</t>
+    <t xml:space="preserve">[Defect] pass, "\ n" action in Additional action required item </t>
+  </si>
+  <si>
+    <t>[Defect] Explorer game -&gt; quit -&gt; explored information is error (ofthen)</t>
+  </si>
+  <si>
+    <t>Structural_Odd_Code</t>
+  </si>
+  <si>
+    <t>covered TC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tc_p25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p25    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p20    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p8    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p22 tc_p24   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p24    </t>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.6,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p22    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_opensafe    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr21    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr18    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr11    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr12 tc_cr13   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr16    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr7    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr06    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cg3    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cg6    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr22    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_detonatedynamite    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_cr19    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_startmicrowave   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p26    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pre_Test_V1,SYS_TEST_V1.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V1,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Test_V0,Pre_Test_V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_openlock    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_enter tc_pass   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc04    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_e4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p2 tc_removedocumentinsafe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_putgoldinlock   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_removedocumentinsafe    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_eatcoffee tc_eatfood   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_digshovel   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_removegoldinpot    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_openlock tc_putkeyinlock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_breakpot   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p4 tc_p5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_digshovel tc_p9    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_allaction   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_inspectaction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_installaction tc_putaction tc_removeaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_allaction  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_enter tc_pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc09   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_opensafe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_picupkey  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc03  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_p5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tc_uc02  </t>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES]program don't ask whether to save when user input "quit"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES]if achieve goal after loading, exception is occured.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES]digging item is not loaded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] can load in game selection menu in online mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] always load invalid input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES]goal is not loaded normally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES]if not match gameConfigId, load func should not load.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] save/load : rooms visit information error.  - at load time, current room is in room visited.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Defect][NEW FEATURES] save/load : point cal error - elevator game 6point save -&gt; continue game. 8 point -&gt; load game score 14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] network game - "javax.crypto.IllegalBlockSizeException" error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[defect][NEW FEATURES] obscured game -&gt; passage room in explored goal list is not game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] network game - When do network games initialize?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] network game : wrong password -&gt; spell error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] network game : some one game lost -&gt; gamer counter is not discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] network game : safe item - error pin number -&gt; game lock up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] requirement item room - There are no that item in the inventory. -&gt; action error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] game config. : There is an unconnected room. -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] game config. : requirement item room game -&gt; there is not requireditem in game -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] [game config] excavatable room game have not shovel in game -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] game config. : look room game have not key, lock item in game - no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] game cofig : obscured room releated item is not in game -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] _elevatorRestrictedFloor or _elevatorInitialFloor value is not real floor ( 1floor - 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] [game config] elevator room -&gt; no button item -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] collector game -&gt; goal item is not in game -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] point game -&gt; very large point over game all point -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] explore game -&gt; goal room is not game -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] Darkroom Game config -&gt; delete light item -&gt; no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] log in - pw error -&gt; unlimited retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] room releated - same direction multi room : no error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] obscured room - obscuringItem : dynamite is not action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] requireditem room - not to set the required item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Defect][NEW FEATURES] collect game load -&gt; play -&gt;  error about goal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] in A Game, 'load' the B Game -&gt; quit -&gt; Display 2 goal about A &amp; B game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] Either re-interrupt this method or rethrow the "InterruptedException".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] Use try-with-resources or close this "FileWriter" in a "finally" clause.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] A "NullPointerException" could be thrown; "digest" is nullable here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect][NEW FEATURES] null pointer exception is occurred when trying to unlock without key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[Defect] microwave don't have some specific action</t>
-  </si>
-  <si>
-    <t>[Defect][NEW FEATURES-1]program don't ask whether to save when user input "quit"</t>
-  </si>
-  <si>
-    <t>[Defect][NEW FEATURES-1]if achieve goal after loading, exception is occured.</t>
-  </si>
-  <si>
-    <t>[Defect][NEW FEATURES-1]digging item is not loaded.</t>
-  </si>
-  <si>
-    <t>[Defect] can load in game selection menu in online mode</t>
-  </si>
-  <si>
-    <t>[Defect] always load invalid input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Defect] collect game load -&gt; play -&gt;  error about goal </t>
-  </si>
-  <si>
-    <t>[Defect] in A Game, 'load' the B Game -&gt; quit -&gt; Display 2 goal about A &amp; B game</t>
-  </si>
-  <si>
-    <t>[Defect][NEW FEATURES-1]goal is not loaded normally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Defect] pass, "\ n" action in Additional action required item </t>
-  </si>
-  <si>
-    <t>[Defect] Explorer game -&gt; quit -&gt; explored information is error (ofthen)</t>
-  </si>
-  <si>
-    <t>Structural_Odd_Code</t>
-  </si>
-  <si>
-    <t>covered TC ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tc_p25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p25    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p20    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p8    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p22 tc_p24   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p24    </t>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.6,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS_TEST_V1.0.4,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p22    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_opensafe    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr21    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr18    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr11    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr12 tc_cr13   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr16    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr7    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr06    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cg3    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cg6    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr22    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_detonatedynamite    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_cr19    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_startmicrowave   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p26    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> SYS_TEST_V1.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ,SYS_TEST_V1.0.4,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pre_Test_V1,SYS_TEST_V1.0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre_Test_V1,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1_Confirm,SYSTEST_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre_Test_V0,Pre_Test_V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_openlock    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_enter tc_pass   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc04    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p1   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_e4   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p12   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p2 tc_removedocumentinsafe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_putgoldinlock   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_removedocumentinsafe    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_eatcoffee tc_eatfood   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_digshovel   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_removegoldinpot    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_openlock tc_putkeyinlock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_breakpot   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p4 tc_p5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_digshovel tc_p9    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_allaction   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_inspectaction  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_installaction tc_putaction tc_removeaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_allaction  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc06  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_enter tc_pass </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc10   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc09   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_opensafe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_picupkey  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc03  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc04  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_p5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tc_uc02  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Defect] At root menu, 'quit'event control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1765,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,19 +1844,19 @@
         <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J1" t="s">
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L1" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1829,37 +1864,37 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C2">
         <v>10202</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
         <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J2" s="6">
         <v>43313.831250000003</v>
       </c>
       <c r="K2" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L2" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1867,37 +1902,37 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C3">
         <v>10201</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
         <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J3" s="6">
         <v>43313.820138888892</v>
       </c>
       <c r="K3" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L3" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1905,37 +1940,37 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C4">
         <v>10200</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
         <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J4" s="6">
         <v>43313.8</v>
       </c>
       <c r="K4" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L4" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1943,37 +1978,37 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>10199</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H5" t="s">
         <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J5" s="6">
         <v>43313.495138888888</v>
       </c>
       <c r="K5" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L5" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1981,37 +2016,37 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>10198</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
         <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J6" s="6">
         <v>43313.48541666667</v>
       </c>
       <c r="K6" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L6" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2019,37 +2054,37 @@
         <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>10197</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H7" t="s">
         <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J7" s="6">
         <v>43313.477777777778</v>
       </c>
       <c r="K7" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L7" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2057,37 +2092,37 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>10196</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J8" s="6">
         <v>43313.45208333333</v>
       </c>
       <c r="K8" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L8" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2095,13 +2130,13 @@
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9">
         <v>10195</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="E9" t="s">
         <v>88</v>
@@ -2110,19 +2145,19 @@
         <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J9" s="6">
         <v>43313.449305555558</v>
       </c>
       <c r="K9" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2130,37 +2165,37 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10">
         <v>10194</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J10" s="6">
         <v>43313.441666666666</v>
       </c>
       <c r="K10" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L10" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2168,35 +2203,35 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11">
         <v>10193</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="E11" t="s">
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J11" s="6">
         <v>43313.42291666667</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2204,37 +2239,37 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>10192</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J12" s="6">
         <v>43313.379166666666</v>
       </c>
       <c r="K12" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2242,37 +2277,37 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13">
         <v>10191</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J13" s="6">
         <v>43313.37777777778</v>
       </c>
       <c r="K13" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L13" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2280,37 +2315,37 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C14">
         <v>10190</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H14" t="s">
         <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J14" s="6">
         <v>43313.375694444447</v>
       </c>
       <c r="K14" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L14" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2318,37 +2353,37 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15">
         <v>10189</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>419</v>
       </c>
       <c r="E15" t="s">
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J15" s="6">
         <v>43313.373611111114</v>
       </c>
       <c r="K15" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L15" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2356,37 +2391,37 @@
         <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>10188</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="E16" t="s">
         <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J16" s="6">
         <v>43313.371527777781</v>
       </c>
       <c r="K16" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L16" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2394,37 +2429,37 @@
         <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>10187</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="E17" t="s">
         <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J17" s="6">
         <v>43313.368055555555</v>
       </c>
       <c r="K17" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L17" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2432,37 +2467,37 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>10186</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J18" s="6">
         <v>43313.365277777775</v>
       </c>
       <c r="K18" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L18" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2470,37 +2505,37 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19">
         <v>10185</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
         <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J19" s="6">
         <v>43313.361805555556</v>
       </c>
       <c r="K19" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L19" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2508,37 +2543,37 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>10184</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="E20" t="s">
         <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J20" s="6">
         <v>43313.36041666667</v>
       </c>
       <c r="K20" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L20" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2546,34 +2581,34 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>10183</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="E21" t="s">
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H21" t="s">
         <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J21" s="6">
         <v>43313.35833333333</v>
       </c>
       <c r="K21" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,34 +2616,34 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>10182</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H22" t="s">
         <v>85</v>
       </c>
       <c r="I22" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J22" s="6">
         <v>43313.354166666664</v>
       </c>
       <c r="K22" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2616,37 +2651,37 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>10181</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H23" t="s">
         <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J23" s="6">
         <v>43312.925694444442</v>
       </c>
       <c r="K23" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L23" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2654,37 +2689,37 @@
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24">
         <v>10178</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="E24" t="s">
         <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H24" t="s">
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J24" s="6">
         <v>43312.707638888889</v>
       </c>
       <c r="K24" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L24" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2692,37 +2727,37 @@
         <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>10177</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="E25" t="s">
         <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H25" t="s">
         <v>85</v>
       </c>
       <c r="I25" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J25" s="6">
         <v>43312.59097222222</v>
       </c>
       <c r="K25" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L25" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2730,37 +2765,37 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>10175</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
         <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H26" t="s">
         <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J26" s="6">
         <v>43312.463194444441</v>
       </c>
       <c r="K26" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="L26" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2768,37 +2803,37 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27">
         <v>10174</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H27" t="s">
         <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J27" s="6">
         <v>43312.456944444442</v>
       </c>
       <c r="K27" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="L27" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2806,13 +2841,13 @@
         <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>10166</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="E28" t="s">
         <v>88</v>
@@ -2821,19 +2856,19 @@
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H28" t="s">
         <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J28" s="6">
         <v>43311.658333333333</v>
       </c>
       <c r="K28" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2841,13 +2876,13 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29">
         <v>10165</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
@@ -2856,19 +2891,19 @@
         <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J29" s="6">
         <v>43311.593055555553</v>
       </c>
       <c r="K29" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2876,13 +2911,13 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30">
         <v>10164</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -2891,19 +2926,19 @@
         <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
         <v>82</v>
       </c>
       <c r="I30" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J30" s="6">
         <v>43311.474305555559</v>
       </c>
       <c r="K30" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2911,13 +2946,13 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31">
         <v>10162</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="E31" t="s">
         <v>70</v>
@@ -2926,19 +2961,19 @@
         <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
       </c>
       <c r="I31" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J31" s="6">
         <v>43311.464583333334</v>
       </c>
       <c r="K31" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2946,13 +2981,13 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>10161</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="E32" t="s">
         <v>70</v>
@@ -2961,19 +2996,19 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H32" t="s">
         <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J32" s="6">
         <v>43311.462500000001</v>
       </c>
       <c r="K32" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2981,37 +3016,37 @@
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33">
         <v>10160</v>
       </c>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="E33" t="s">
         <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
         <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J33" s="6">
         <v>43311.384722222225</v>
       </c>
       <c r="K33" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3019,37 +3054,37 @@
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34">
         <v>10159</v>
       </c>
       <c r="D34" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="E34" t="s">
         <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H34" t="s">
         <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J34" s="6">
         <v>43311.383333333331</v>
       </c>
       <c r="K34" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3057,13 +3092,13 @@
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35">
         <v>10158</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>433</v>
       </c>
       <c r="E35" t="s">
         <v>70</v>
@@ -3072,19 +3107,19 @@
         <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J35" s="6">
         <v>43311.349305555559</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3092,13 +3127,13 @@
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36">
         <v>10157</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>434</v>
       </c>
       <c r="E36" t="s">
         <v>70</v>
@@ -3107,19 +3142,19 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J36" s="6">
         <v>43311.347916666666</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3127,13 +3162,13 @@
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C37">
         <v>10156</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
+        <v>435</v>
       </c>
       <c r="E37" t="s">
         <v>70</v>
@@ -3142,19 +3177,19 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I37" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J37" s="6">
         <v>43311.345138888886</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3162,13 +3197,13 @@
         <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C38">
         <v>10155</v>
       </c>
       <c r="D38" t="s">
-        <v>175</v>
+        <v>436</v>
       </c>
       <c r="E38" t="s">
         <v>70</v>
@@ -3177,22 +3212,22 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H38" t="s">
         <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J38" s="6">
         <v>43310.915277777778</v>
       </c>
       <c r="K38" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3200,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C39">
         <v>10153</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E39" t="s">
         <v>88</v>
@@ -3215,19 +3250,19 @@
         <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
         <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J39" s="6">
         <v>43310.835416666669</v>
       </c>
       <c r="K39" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3235,37 +3270,37 @@
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C40">
         <v>10151</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H40" t="s">
         <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J40" s="6">
         <v>43309.692361111112</v>
       </c>
       <c r="K40" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3273,37 +3308,37 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>10150</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
         <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J41" s="6">
         <v>43309.679166666669</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3311,37 +3346,37 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C42">
         <v>10145</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H42" t="s">
         <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J42" s="6">
         <v>43307.34652777778</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L42" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3349,37 +3384,37 @@
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C43">
         <v>10144</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J43" s="6">
         <v>43307.021527777775</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3387,37 +3422,37 @@
         <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C44">
         <v>10143</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H44" t="s">
         <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J44" s="6">
         <v>43307.019444444442</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3425,37 +3460,37 @@
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C45">
         <v>10142</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H45" t="s">
         <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J45" s="6">
         <v>43307.011805555558</v>
       </c>
       <c r="K45" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3463,37 +3498,37 @@
         <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C46">
         <v>10141</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E46" t="s">
         <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H46" t="s">
         <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J46" s="6">
         <v>43306.997916666667</v>
       </c>
       <c r="K46" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3501,37 +3536,37 @@
         <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C47">
         <v>10140</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H47" t="s">
         <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J47" s="6">
         <v>43306.990277777775</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3539,34 +3574,34 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C48">
         <v>10133</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H48" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J48" s="6">
         <v>43306.964583333334</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3574,34 +3609,34 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C49">
         <v>10132</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J49" s="6">
         <v>43306.963888888888</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3609,34 +3644,34 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C50">
         <v>10131</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I50" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J50" s="6">
         <v>43306.963888888888</v>
       </c>
       <c r="K50" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3644,34 +3679,34 @@
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C51">
         <v>10130</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F51" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J51" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K51" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3679,34 +3714,34 @@
         <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C52">
         <v>10129</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J52" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K52" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3714,34 +3749,34 @@
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C53">
         <v>10128</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J53" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K53" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3749,34 +3784,34 @@
         <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>10126</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F54" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I54" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J54" s="6">
         <v>43306.963194444441</v>
       </c>
       <c r="K54" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3784,34 +3819,34 @@
         <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C55">
         <v>10125</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I55" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J55" s="6">
         <v>43306.962500000001</v>
       </c>
       <c r="K55" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3819,34 +3854,34 @@
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>10124</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J56" s="6">
         <v>43306.962500000001</v>
       </c>
       <c r="K56" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3854,37 +3889,37 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C57">
         <v>10123</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H57" t="s">
         <v>85</v>
       </c>
       <c r="I57" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J57" s="6">
         <v>43306.961111111108</v>
       </c>
       <c r="K57" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3892,37 +3927,37 @@
         <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C58">
         <v>10121</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
         <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H58" t="s">
         <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J58" s="6">
         <v>43306.953472222223</v>
       </c>
       <c r="K58" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3930,37 +3965,37 @@
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C59">
         <v>10120</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
         <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H59" t="s">
         <v>85</v>
       </c>
       <c r="I59" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J59" s="6">
         <v>43306.455555555556</v>
       </c>
       <c r="K59" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L59" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3968,34 +4003,34 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C60">
         <v>10119</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I60" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J60" s="6">
         <v>43306.373611111114</v>
       </c>
       <c r="K60" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4003,34 +4038,34 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <v>10116</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I61" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J61" s="6">
         <v>43306.364583333336</v>
       </c>
       <c r="K61" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4038,34 +4073,34 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>10115</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I62" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J62" s="6">
         <v>43306.361805555556</v>
       </c>
       <c r="K62" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4073,34 +4108,34 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C63">
         <v>10114</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J63" s="6">
         <v>43306.356944444444</v>
       </c>
       <c r="K63" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4108,34 +4143,34 @@
         <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C64">
         <v>10113</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I64" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J64" s="6">
         <v>43306.34097222222</v>
       </c>
       <c r="K64" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4143,37 +4178,37 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C65">
         <v>10111</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
         <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H65" t="s">
         <v>85</v>
       </c>
       <c r="I65" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J65" s="6">
         <v>43305.909722222219</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="L65" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4181,37 +4216,37 @@
         <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C66">
         <v>10110</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
         <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H66" t="s">
         <v>85</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J66" s="6">
         <v>43305.908333333333</v>
       </c>
       <c r="K66" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="L66" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4219,37 +4254,37 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C67">
         <v>10109</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
         <v>91</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H67" t="s">
         <v>85</v>
       </c>
       <c r="I67" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J67" s="6">
         <v>43305.904166666667</v>
       </c>
       <c r="K67" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L67" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4257,37 +4292,37 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C68">
         <v>10108</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H68" t="s">
         <v>85</v>
       </c>
       <c r="I68" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J68" s="6">
         <v>43305.900694444441</v>
       </c>
       <c r="K68" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="L68" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4295,37 +4330,37 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C69">
         <v>10107</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
         <v>91</v>
       </c>
       <c r="F69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H69" t="s">
         <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J69" s="6">
         <v>43305.898611111108</v>
       </c>
       <c r="K69" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="L69" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4333,37 +4368,37 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C70">
         <v>10099</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s">
         <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H70" t="s">
         <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J70" s="6">
         <v>43305.701388888891</v>
       </c>
       <c r="K70" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L70" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4371,13 +4406,13 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C71">
         <v>10092</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E71" t="s">
         <v>91</v>
@@ -4386,19 +4421,19 @@
         <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I71" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J71" s="6">
         <v>43305.405555555553</v>
       </c>
       <c r="K71" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4406,34 +4441,34 @@
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C72">
         <v>10090</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F72" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I72" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J72" s="6">
         <v>43304.921527777777</v>
       </c>
       <c r="K72" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4441,37 +4476,37 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C73">
         <v>10089</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H73" t="s">
         <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J73" s="6">
         <v>43304.855555555558</v>
       </c>
       <c r="K73" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="L73" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4479,13 +4514,13 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C74">
         <v>10086</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E74" t="s">
         <v>88</v>
@@ -4494,20 +4529,20 @@
         <v>88</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H74" t="s">
         <v>85</v>
       </c>
       <c r="I74" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J74" s="6">
         <v>43304.724999999999</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4515,13 +4550,13 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C75">
         <v>10085</v>
       </c>
       <c r="D75" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
         <v>70</v>
@@ -4530,19 +4565,19 @@
         <v>88</v>
       </c>
       <c r="G75" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I75" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J75" s="6">
         <v>43304.715277777781</v>
       </c>
       <c r="K75" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4550,37 +4585,37 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C76">
         <v>10084</v>
       </c>
       <c r="D76" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
         <v>70</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G76" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H76" t="s">
         <v>85</v>
       </c>
       <c r="I76" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J76" s="6">
         <v>43304.701388888891</v>
       </c>
       <c r="K76" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="L76" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4588,13 +4623,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77">
         <v>10053</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
         <v>70</v>
@@ -4603,19 +4638,19 @@
         <v>70</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J77" s="6">
         <v>43300.010416666664</v>
       </c>
       <c r="K77" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4638,20 +4673,20 @@
         <v>88</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H78" t="s">
         <v>85</v>
       </c>
       <c r="I78" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J78" s="6">
         <v>43299.993750000001</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4674,20 +4709,20 @@
         <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H79" t="s">
         <v>85</v>
       </c>
       <c r="I79" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J79" s="6">
         <v>43299.957638888889</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4695,13 +4730,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80">
         <v>10050</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
         <v>70</v>
@@ -4710,19 +4745,19 @@
         <v>70</v>
       </c>
       <c r="G80" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I80" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J80" s="6">
         <v>43299.951388888891</v>
       </c>
       <c r="K80" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4730,13 +4765,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81">
         <v>10047</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
         <v>70</v>
@@ -4745,19 +4780,19 @@
         <v>70</v>
       </c>
       <c r="G81" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J81" s="6">
         <v>43299.915972222225</v>
       </c>
       <c r="K81" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4765,13 +4800,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82">
         <v>10046</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
         <v>88</v>
@@ -4780,19 +4815,19 @@
         <v>70</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J82" s="6">
         <v>43299.898611111108</v>
       </c>
       <c r="K82" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4812,22 +4847,22 @@
         <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G83" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I83" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J83" s="6">
         <v>43299.888194444444</v>
       </c>
       <c r="K83" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4835,37 +4870,37 @@
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84">
         <v>10033</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H84" t="s">
         <v>85</v>
       </c>
       <c r="I84" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J84" s="6">
         <v>43297.386111111111</v>
       </c>
       <c r="K84" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L84" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4873,37 +4908,37 @@
         <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85">
         <v>10032</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G85" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H85" t="s">
         <v>85</v>
       </c>
       <c r="I85" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J85" s="6">
         <v>43297.385416666664</v>
       </c>
       <c r="K85" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L85" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4911,37 +4946,37 @@
         <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>10031</v>
       </c>
       <c r="D86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H86" t="s">
         <v>85</v>
       </c>
       <c r="I86" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J86" s="6">
         <v>43297.379861111112</v>
       </c>
       <c r="K86" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L86" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4949,37 +4984,37 @@
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87">
         <v>10030</v>
       </c>
       <c r="D87" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" t="s">
         <v>113</v>
       </c>
-      <c r="E87" t="s">
-        <v>114</v>
-      </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G87" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H87" t="s">
         <v>85</v>
       </c>
       <c r="I87" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J87" s="6">
         <v>43297.376388888886</v>
       </c>
       <c r="K87" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L87" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4987,37 +5022,37 @@
         <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <v>10029</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>70</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H88" t="s">
         <v>85</v>
       </c>
       <c r="I88" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J88" s="6">
         <v>43297.368750000001</v>
       </c>
       <c r="K88" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L88" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5025,37 +5060,37 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <v>10028</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
         <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H89" t="s">
         <v>85</v>
       </c>
       <c r="I89" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J89" s="6">
         <v>43297.366666666669</v>
       </c>
       <c r="K89" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="L89" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5063,37 +5098,37 @@
         <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90">
         <v>10027</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H90" t="s">
         <v>85</v>
       </c>
       <c r="I90" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J90" s="6">
         <v>43297.365972222222</v>
       </c>
       <c r="K90" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="L90" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5101,37 +5136,37 @@
         <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>10026</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H91" t="s">
         <v>85</v>
       </c>
       <c r="I91" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J91" s="6">
         <v>43297.354861111111</v>
       </c>
       <c r="K91" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L91" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5139,37 +5174,37 @@
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>10025</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E92" t="s">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H92" t="s">
         <v>85</v>
       </c>
       <c r="I92" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J92" s="6">
         <v>43297.351388888892</v>
       </c>
       <c r="K92" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L92" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5189,25 +5224,25 @@
         <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H93" t="s">
         <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J93" s="6">
         <v>43297.347916666666</v>
       </c>
       <c r="K93" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L93" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5227,25 +5262,25 @@
         <v>88</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G94" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H94" t="s">
         <v>85</v>
       </c>
       <c r="I94" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J94" s="6">
         <v>43297.338194444441</v>
       </c>
       <c r="K94" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L94" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5253,37 +5288,37 @@
         <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95">
         <v>10022</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G95" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H95" t="s">
         <v>85</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J95" s="6">
         <v>43294.723611111112</v>
       </c>
       <c r="K95" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L95" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5303,25 +5338,25 @@
         <v>91</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H96" t="s">
         <v>85</v>
       </c>
       <c r="I96" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J96" s="6">
         <v>43294.722222222219</v>
       </c>
       <c r="K96" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L96" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5341,25 +5376,25 @@
         <v>91</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H97" t="s">
         <v>85</v>
       </c>
       <c r="I97" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J97" s="6">
         <v>43294.71597222222</v>
       </c>
       <c r="K97" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L97" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5367,37 +5402,37 @@
         <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>10019</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H98" t="s">
         <v>85</v>
       </c>
       <c r="I98" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J98" s="6">
         <v>43294.709722222222</v>
       </c>
       <c r="K98" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L98" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5411,31 +5446,31 @@
         <v>10018</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="E99" t="s">
         <v>70</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G99" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H99" t="s">
         <v>85</v>
       </c>
       <c r="I99" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J99" s="6">
         <v>43294.708333333336</v>
       </c>
       <c r="K99" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="L99" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5446,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5460,10 +5495,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -5474,10 +5509,10 @@
         <v>2</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -5488,24 +5523,24 @@
         <v>2</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -5516,10 +5551,10 @@
         <v>5</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -5530,24 +5565,24 @@
         <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -5558,24 +5593,24 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -5586,15 +5621,15 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>10</v>
@@ -5603,12 +5638,12 @@
         <v>72</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>10</v>
@@ -5617,12 +5652,12 @@
         <v>72</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>10</v>
@@ -5631,21 +5666,21 @@
         <v>72</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5656,10 +5691,10 @@
         <v>5</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5670,10 +5705,10 @@
         <v>5</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -5684,10 +5719,10 @@
         <v>5</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5698,10 +5733,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -5712,52 +5747,52 @@
         <v>2</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5768,10 +5803,10 @@
         <v>17</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5782,24 +5817,24 @@
         <v>17</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5810,10 +5845,10 @@
         <v>19</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -5824,24 +5859,24 @@
         <v>20</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -5852,24 +5887,24 @@
         <v>23</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5880,38 +5915,38 @@
         <v>5</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5922,10 +5957,10 @@
         <v>26</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -5936,10 +5971,10 @@
         <v>28</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5950,10 +5985,10 @@
         <v>17</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5964,10 +5999,10 @@
         <v>29</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -5978,10 +6013,10 @@
         <v>17</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5992,10 +6027,10 @@
         <v>29</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -6006,10 +6041,10 @@
         <v>29</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -6020,10 +6055,10 @@
         <v>30</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -6034,10 +6069,10 @@
         <v>17</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6048,10 +6083,10 @@
         <v>29</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -6062,10 +6097,10 @@
         <v>31</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -6076,10 +6111,10 @@
         <v>17</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -6090,10 +6125,10 @@
         <v>29</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -6104,10 +6139,10 @@
         <v>17</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -6118,10 +6153,10 @@
         <v>29</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -6132,10 +6167,10 @@
         <v>29</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,10 +6181,10 @@
         <v>32</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -6160,10 +6195,10 @@
         <v>33</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -6174,10 +6209,10 @@
         <v>34</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -6188,10 +6223,10 @@
         <v>35</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -6202,10 +6237,10 @@
         <v>36</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -6216,10 +6251,10 @@
         <v>29</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -6230,10 +6265,10 @@
         <v>37</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -6244,10 +6279,10 @@
         <v>38</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -6258,10 +6293,10 @@
         <v>39</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6272,10 +6307,10 @@
         <v>37</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -6286,10 +6321,10 @@
         <v>40</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -6300,10 +6335,10 @@
         <v>41</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6314,10 +6349,10 @@
         <v>42</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6328,52 +6363,52 @@
         <v>12</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6384,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6412,10 +6447,10 @@
         <v>0</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6426,10 +6461,10 @@
         <v>12</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6440,10 +6475,10 @@
         <v>0</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6454,10 +6489,10 @@
         <v>46</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -6468,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6482,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6496,10 +6531,10 @@
         <v>47</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6524,10 +6559,10 @@
         <v>0</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6538,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6552,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6566,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6580,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6594,10 +6629,10 @@
         <v>0</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -6608,10 +6643,10 @@
         <v>48</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6622,10 +6657,10 @@
         <v>49</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6636,10 +6671,10 @@
         <v>50</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -6650,10 +6685,10 @@
         <v>51</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -6664,10 +6699,10 @@
         <v>52</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6678,10 +6713,10 @@
         <v>52</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6692,10 +6727,10 @@
         <v>53</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -6706,10 +6741,10 @@
         <v>54</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -6720,10 +6755,10 @@
         <v>55</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6734,38 +6769,38 @@
         <v>56</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6776,10 +6811,10 @@
         <v>59</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6790,10 +6825,10 @@
         <v>48</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6804,10 +6839,10 @@
         <v>48</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6818,10 +6853,10 @@
         <v>60</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6832,10 +6867,10 @@
         <v>60</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6846,10 +6881,10 @@
         <v>61</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6860,10 +6895,10 @@
         <v>62</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6874,10 +6909,10 @@
         <v>62</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -6888,10 +6923,10 @@
         <v>63</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -6902,10 +6937,10 @@
         <v>64</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -6916,10 +6951,10 @@
         <v>65</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6930,10 +6965,10 @@
         <v>66</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -6944,10 +6979,10 @@
         <v>67</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -6958,10 +6993,10 @@
         <v>68</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6972,934 +7007,934 @@
         <v>68</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
